--- a/271025_Results_Med/output/m2/27102025_mod2_by_education.xlsx
+++ b/271025_Results_Med/output/m2/27102025_mod2_by_education.xlsx
@@ -1812,27 +1812,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Menos de 1000 cc</t>
+          <t>Eléctrico / No aplica</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>59 (96.7%)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>188 (97.9%)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>38 (77.6%)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>92 (96.8%)</t>
         </is>
       </c>
       <c r="H37">
@@ -1852,27 +1852,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Menos de 1000 cc</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>59 (96.7%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>188 (97.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>38 (77.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>92 (96.8%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H38">
@@ -2052,27 +2052,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Más de 250 cc</t>
+          <t>Eléctrico / No aplica</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>57 (93.4%)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>152 (78.8%)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3 (6.1%)</t>
+          <t>34 (69.4%)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>69 (72.6%)</t>
         </is>
       </c>
       <c r="H43">
@@ -2092,27 +2092,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Menos de 125 cc</t>
+          <t>Más de 250 cc</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3 (4.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>4 (8.2%)</t>
+          <t>3 (6.1%)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2 (2.1%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H44">
@@ -2132,27 +2132,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>Menos de 125 cc</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>57 (93.4%)</t>
+          <t>3 (4.9%)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>152 (78.8%)</t>
+          <t>4 (2.1%)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>34 (69.4%)</t>
+          <t>4 (8.2%)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>69 (72.6%)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="H45">

--- a/271025_Results_Med/output/m2/27102025_mod2_by_education.xlsx
+++ b/271025_Results_Med/output/m2/27102025_mod2_by_education.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1812,27 +1812,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Eléctrico / No aplica</t>
+          <t>3000 cc o más</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>59 (96.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>188 (97.9%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>38 (77.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>92 (96.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H37">
@@ -1852,27 +1852,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Menos de 1000 cc</t>
+          <t>Eléctrico / No aplica</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>59 (96.7%)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>188 (97.4%)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>38 (77.6%)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>92 (96.8%)</t>
         </is>
       </c>
       <c r="H38">
@@ -1892,17 +1892,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>No sabe / No responde</t>
+          <t>Menos de 1000 cc</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H39">
@@ -1922,17 +1922,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>cilindraje_moto_agregado</t>
+          <t>cilindraje_auto_agregado</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Cilindraje de motocicletas (agregado)</t>
+          <t>Cilindraje de automóviles (agregado)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>125 cc</t>
+          <t>No sabe / No responde</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1942,21 +1942,21 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>15 (7.8%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>6 (12.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>12 (12.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H40">
-        <v>0.0013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>150 - 250 cc</t>
+          <t>125 cc</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1982,17 +1982,17 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10 (5.2%)</t>
+          <t>15 (7.8%)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>6 (12.2%)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>6 (6.3%)</t>
+          <t>12 (12.6%)</t>
         </is>
       </c>
       <c r="H41">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>150 cc</t>
+          <t>150 - 250 cc</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11 (5.7%)</t>
+          <t>10 (5.2%)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>4 (4.2%)</t>
+          <t>6 (6.3%)</t>
         </is>
       </c>
       <c r="H42">
@@ -2052,27 +2052,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Eléctrico / No aplica</t>
+          <t>150 cc</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>57 (93.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>152 (78.8%)</t>
+          <t>11 (5.7%)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>34 (69.4%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>69 (72.6%)</t>
+          <t>4 (4.2%)</t>
         </is>
       </c>
       <c r="H43">
@@ -2092,27 +2092,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Más de 250 cc</t>
+          <t>Eléctrico / No aplica</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>57 (93.4%)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>152 (78.8%)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3 (6.1%)</t>
+          <t>34 (69.4%)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>69 (72.6%)</t>
         </is>
       </c>
       <c r="H44">
@@ -2132,27 +2132,27 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Menos de 125 cc</t>
+          <t>Más de 250 cc</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3 (4.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>4 (8.2%)</t>
+          <t>3 (6.1%)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2 (2.1%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H45">
@@ -2172,27 +2172,27 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>No sabe / No responde</t>
+          <t>Menos de 125 cc</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>3 (4.9%)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>4 (2.1%)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (8.2%)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="H46">
@@ -2202,38 +2202,41 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>cilindraje_camion_agregado</t>
+          <t>cilindraje_moto_agregado</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Cilindraje de camiones (futuro)</t>
+          <t>Cilindraje de motocicletas (agregado)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>No aplica</t>
+          <t>No sabe / No responde</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>61 (100.0%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>193 (100.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>49 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>95 (100.0%)</t>
-        </is>
+          <t>1 (1.1%)</t>
+        </is>
+      </c>
+      <c r="H47">
+        <v>0.0013</v>
       </c>
     </row>
     <row r="48">
@@ -3174,17 +3177,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>10 (16.9%)</t>
+          <t>10 (16.4%)</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>29 (15.2%)</t>
+          <t>29 (15.0%)</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2 (4.2%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3209,7 +3212,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Cuidado y familia (centro educativo, niños/as o jóvenes)</t>
+          <t>Cuidado y familia (escuela, niñas/os)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3249,27 +3252,27 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Estudio</t>
+          <t>Cuidado y familia (persona con discapacidad)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1 (1.7%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>19 (9.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>4 (8.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>9 (9.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H73">
@@ -3289,12 +3292,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Otro</t>
+          <t>Cuidado y familia (persona enferma)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>1 (1.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3304,7 +3307,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3329,27 +3332,27 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Recreación, salud y actividades personales</t>
+          <t>Cuidado y familia (recreación, niñas/os)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>29 (49.2%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>46 (24.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>4 (8.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>11 (11.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H75">
@@ -3369,27 +3372,27 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Trabajo</t>
+          <t>Cuidado y familia (salud, niñas/os)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>14 (23.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>86 (45.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>37 (77.1%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>57 (60.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H76">
@@ -3409,27 +3412,27 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Visitas sociales</t>
+          <t>Estudio</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>4 (6.8%)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>7 (3.7%)</t>
+          <t>19 (9.8%)</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (8.2%)</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>5 (5.3%)</t>
+          <t>9 (9.5%)</t>
         </is>
       </c>
       <c r="H77">
@@ -3439,32 +3442,37 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>p1edad</t>
+          <t>p23_agregado</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>¿Cuántos años cumplidos tiene?</t>
+          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>64.0 (55.0–72.0)</t>
+          <t>1 (1.6%)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>42.0 (25.0–56.0)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>39.0 (32.0–46.0)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>34.0 (26.5–43.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="H78">
@@ -3474,205 +3482,360 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>p18</t>
+          <t>p23_agregado</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Tiempo total de viaje (minutos)</t>
+          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Recreación, salud y actividades personales</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>20.0 (15.0–20.0)</t>
+          <t>29 (47.5%)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>20.0 (15.0–40.0)</t>
+          <t>46 (23.8%)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>30.0 (20.0–35.0)</t>
+          <t>4 (8.2%)</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>30.0 (20.0–40.0)</t>
+          <t>11 (11.6%)</t>
         </is>
       </c>
       <c r="H79">
-        <v>0.1132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>p18_p1</t>
+          <t>p23_agregado</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Minutos caminando hasta el modo de transporte</t>
+          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Trabajo</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>14 (23.0%)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.0)</t>
+          <t>86 (44.6%)</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>37 (75.5%)</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>5.0 (5.0–13.5)</t>
+          <t>57 (60.0%)</t>
         </is>
       </c>
       <c r="H80">
-        <v>0.7974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>p18_p2</t>
+          <t>p23_agregado</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Minutos de espera del transporte</t>
+          <t>Propósito principal del viaje (armonizado y detallado con grupos de cuidado: niños/as o jóvenes)</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Visitas sociales</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>4 (6.6%)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.0)</t>
+          <t>7 (3.6%)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>5.0 (4.8–10.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>5.0 (5.0–15.0)</t>
+          <t>5 (5.3%)</t>
         </is>
       </c>
       <c r="H81">
-        <v>0.2728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>p18_p3</t>
+          <t>p1edad</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Minutos de trayecto en transporte (arranca -&gt; baja)</t>
+          <t>¿Cuántos años cumplidos tiene?</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>30.0 (20.0–37.5)</t>
+          <t>64.0 (55.0–72.0)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>30.0 (15.0–40.0)</t>
+          <t>42.0 (25.0–56.0)</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>20.0 (15.0–30.0)</t>
+          <t>39.0 (32.0–46.0)</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>30.0 (20.0–40.0)</t>
+          <t>34.0 (26.5–43.0)</t>
         </is>
       </c>
       <c r="H82">
-        <v>0.0902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>p18_p4</t>
+          <t>p18</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Minutos caminando después del descenso</t>
+          <t>Tiempo total de viaje (minutos)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>10.0 (5.0–20.0)</t>
+          <t>20.0 (15.0–20.0)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>10.0 (5.0–15.0)</t>
+          <t>20.0 (15.0–40.0)</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>5.0 (5.0–15.0)</t>
+          <t>30.0 (20.0–35.0)</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>5.0 (5.0–10.0)</t>
+          <t>30.0 (20.0–40.0)</t>
         </is>
       </c>
       <c r="H83">
-        <v>0.0148</v>
+        <v>0.1132</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>p18_p1</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Minutos caminando hasta el modo de transporte</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–10.0)</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–13.5)</t>
+        </is>
+      </c>
+      <c r="H84">
+        <v>0.7974</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>p18_p2</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Minutos de espera del transporte</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–10.0)</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.0 (4.8–10.0)</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="H85">
+        <v>0.2728</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>p18_p3</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Minutos de trayecto en transporte (arranca -&gt; baja)</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>30.0 (20.0–37.5)</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>30.0 (15.0–40.0)</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>20.0 (15.0–30.0)</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>30.0 (20.0–40.0)</t>
+        </is>
+      </c>
+      <c r="H86">
+        <v>0.0902</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>p18_p4</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Minutos caminando después del descenso</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–20.0)</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>10.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–15.0)</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–10.0)</t>
+        </is>
+      </c>
+      <c r="H87">
+        <v>0.0148</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
           <t>p18_c1</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Minutos de la caminata a su destino</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>25.0 (18.8–40.0)</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>20.0 (10.0–20.0)</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>5.0 (5.0–5.0)</t>
         </is>
       </c>
-      <c r="H84">
+      <c r="H88">
         <v>0.2183</v>
       </c>
     </row>
